--- a/trend_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
+++ b/trend_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.998339021235979</v>
+        <v>0.001660978764021</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.99973131568678</v>
+        <v>0.00026868431322</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.338726283348452</v>
+        <v>0.661273716651548</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7858121578767</v>
+        <v>0.2141878421233</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3980270793204</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.577464788732394</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0142163305708693</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.007962490061006499</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00601083435614</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.925373134328358</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.455</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.151569736622347</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.25997647522784</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0451674631282469</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-2.7785469591631</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9999965146256899</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.602739726027397</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.0037948051948052</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0052374985525549</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.0023925152100181</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-8.340231197374059</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.666938248951397</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0068493150684931</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.856164383561644</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>455.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-4.16448692152917</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-24.430762762368</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11.7351226879776</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.914267161696855</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.678325900653462</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.360294117647059</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.647058823529412</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0181742630514289</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.171776623053892</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.264705882352941</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.235294117647059</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0002498577508505</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9429884936896999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.323529411764706</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.647058823529412</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0041030538659664</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.460650339705211</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.567375886524823</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0118698741902032</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0099723789083</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9679968639270869</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0342465753424658</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.773972602739726</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0035192704748795</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0115026196716189</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0004507674495896</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.65223965956787</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.906603898412488</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.828767123287671</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0243023483365949</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0498695477236717</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.009541591367716399</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.39268471842951</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.285912003302425</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.876712328767123</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3265</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0019972658920027</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0027488207652652</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.009167626841039399</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.611720028178475</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.745205568038048</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.917808219178082</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.183229051819184</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.557340267501708</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.124900410177024</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.6733246741478</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
+++ b/trend_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.84361405272427</v>
+        <v>0.85822403591342</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.785714285714286</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.22</v>
+        <v>0.2625</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0229308628386042</v>
+        <v>0.0271763392857143</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0110956142798739</v>
+        <v>-0.0224844945212803</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0579761904761904</v>
+        <v>0.0734788245180933</v>
       </c>
       <c r="N2" t="n">
-        <v>10.4231194720928</v>
+        <v>10.3528911564626</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.001660978764021</v>
+        <v>0.0460294840182069</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.35</v>
+        <v>6.695</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.966214115257319</v>
+        <v>-0.678686313686313</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.53787817000175</v>
+        <v>-1.42885357221814</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.422155476589628</v>
+        <v>-0.0436078305918157</v>
       </c>
       <c r="N3" t="n">
-        <v>-15.2159703190129</v>
+        <v>-10.1372115561809</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.146402306415126</v>
+        <v>0.252728180244266</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.785714285714286</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002484693877551</v>
+        <v>0.0017201726844584</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0013318199329445</v>
+        <v>-0.0030919955046266</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0068994074037186</v>
+        <v>0.0067211761901597</v>
       </c>
       <c r="N4" t="n">
-        <v>8.015141540487161</v>
+        <v>5.21264449835878</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0731425566137312</v>
+        <v>0.586227005108278</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.880952380952381</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="K5" t="n">
-        <v>82.3872180451128</v>
+        <v>-8.809369202226341</v>
       </c>
       <c r="L5" t="n">
-        <v>-7.85340695485915</v>
+        <v>-96.7595879474526</v>
       </c>
       <c r="M5" t="n">
-        <v>200.555510756891</v>
+        <v>95.30660082173731</v>
       </c>
       <c r="N5" t="n">
-        <v>16.8137179683904</v>
+        <v>-1.95763760049474</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.522160606812799</v>
+        <v>0.733235042920126</v>
       </c>
       <c r="G6" t="n">
-        <v>0.305555555555556</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.722222222222222</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0204227865537609</v>
+        <v>0.0189877573669536</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0016069209141533</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0032450968652123</v>
+        <v>-0.0052797883431004</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0041510644369713</v>
+        <v>0.00249676742877</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-8.462931577954929</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.20613287643255</v>
+        <v>0.767318485253823</v>
       </c>
       <c r="G7" t="n">
-        <v>0.214285714285714</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="H7" t="n">
-        <v>0.452380952380952</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004421912832929</v>
+        <v>-0.000431227863046</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0004070127466983</v>
+        <v>-0.001836307134495</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0021741071428571</v>
+        <v>0.000752360503578</v>
       </c>
       <c r="N7" t="n">
-        <v>7.36985472154964</v>
+        <v>-4.79142070051161</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.629959715930557</v>
+        <v>0.705634167442577</v>
       </c>
       <c r="G8" t="n">
-        <v>0.30952380952381</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="H8" t="n">
-        <v>0.642857142857143</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0455</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0101178637392939</v>
+        <v>-0.0333124533564863</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0071015036466259</v>
+        <v>0.0079964338043327</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00026868431322</v>
+        <v>0.111204024085004</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.780487804878049</v>
+        <v>0.815789473684211</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.01</v>
+        <v>6.935</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0869642857142858</v>
+        <v>-0.0368939393939395</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.122454747509227</v>
+        <v>-0.0875529311301842</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0516847695499688</v>
+        <v>0.0124806111081194</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.24057468921948</v>
+        <v>-0.53199624216207</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,35 +1293,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.418397371985882</v>
+        <v>0.706943980384834</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0238095238095238</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.880952380952381</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0016378923766816</v>
+        <v>-0.0177305825242719</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0324095480199635</v>
+        <v>-0.09845209505612181</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0575516204530103</v>
+        <v>0.0383262810617116</v>
       </c>
       <c r="N10" t="n">
-        <v>0.963466103930361</v>
+        <v>-5.71954274976512</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.06300590426881369</v>
+        <v>0.212253260591174</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.642857142857143</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13.5</v>
+        <v>1.56</v>
       </c>
       <c r="K11" t="n">
-        <v>1.93253968253968</v>
+        <v>0.0685915492957747</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0779051711194538</v>
       </c>
       <c r="M11" t="n">
-        <v>4.34821428571429</v>
+        <v>0.214106132319102</v>
       </c>
       <c r="N11" t="n">
-        <v>14.3151087595532</v>
+        <v>4.39689418562658</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0230460885817268</v>
+        <v>0.0070276918622025</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.904761904761905</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.54</v>
+        <v>0.283</v>
       </c>
       <c r="K12" t="n">
-        <v>0.157142441860465</v>
+        <v>0.039779702970297</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0264952526254242</v>
+        <v>0.014595264178749</v>
       </c>
       <c r="M12" t="n">
-        <v>0.267763269937025</v>
+        <v>0.08484005424168251</v>
       </c>
       <c r="N12" t="n">
-        <v>10.204054666264</v>
+        <v>14.0564321449813</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0030531262504239</v>
+        <v>0.241458522228406</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9761904761904761</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.279</v>
+        <v>10.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0471614010989011</v>
+        <v>0.64827922077922</v>
       </c>
       <c r="L13" t="n">
-        <v>0.018345705118416</v>
+        <v>-0.924467319848581</v>
       </c>
       <c r="M13" t="n">
-        <v>0.080218442989241</v>
+        <v>1.9910712192743</v>
       </c>
       <c r="N13" t="n">
-        <v>16.9037279924377</v>
+        <v>6.05868430634785</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.086046240295097</v>
+        <v>0.622749249772051</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.975</v>
+        <v>0.225</v>
       </c>
       <c r="K14" t="n">
-        <v>1.09297125950972</v>
+        <v>0.0023984326827352</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.214246368510663</v>
+        <v>-0.0110393155724629</v>
       </c>
       <c r="M14" t="n">
-        <v>2.67707629453422</v>
+        <v>0.0159468437393978</v>
       </c>
       <c r="N14" t="n">
-        <v>10.9571053584934</v>
+        <v>1.06597008121568</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.483427728121062</v>
+        <v>0.906649634329786</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.603174603174603</v>
+        <v>0.953488372093023</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.22</v>
+        <v>5.455</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.185983026874117</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0150549569990692</v>
+        <v>-0.0472717312530349</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0130490904413476</v>
+        <v>0.404308123970308</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.40940470896639</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.661273716651548</v>
+        <v>0.955717099508036</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.934065934065934</v>
+        <v>0.639175257731959</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.19</v>
+        <v>0.037</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0457455968688846</v>
+        <v>-0.0016723901098901</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.12624600362134</v>
+        <v>-0.0029958988380041</v>
       </c>
       <c r="M16" t="n">
-        <v>0.20513670224177</v>
+        <v>-4.31568575120288e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.881418051423595</v>
+        <v>-4.51997326997327</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0941921466100676</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0103092783505155</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.814432989690722</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.933477539369464</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.627450980392157</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.038</v>
+        <v>360</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0016915814718068</v>
+        <v>15.1111816100968</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0029613541333133</v>
+        <v>-4.75645066917571</v>
       </c>
       <c r="M17" t="n">
-        <v>3.10488641710308e-05</v>
+        <v>44.302218255203</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.45153018896548</v>
+        <v>4.1975504472491</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.150287179944246</v>
+        <v>0.034302298026423</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009803921568627401</v>
+        <v>0.420454545454545</v>
       </c>
       <c r="H18" t="n">
-        <v>0.833333333333333</v>
+        <v>0.602272727272727</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>0.014191843577095</v>
       </c>
       <c r="K18" t="n">
-        <v>15.1599903474903</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-8.58604159670791</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>45.978711647048</v>
+        <v>0.001656879008086</v>
       </c>
       <c r="N18" t="n">
-        <v>3.78999758687259</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,28 +2116,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0166150772042906</v>
+        <v>0.6200443558188909</v>
       </c>
       <c r="G19" t="n">
-        <v>0.440860215053763</v>
+        <v>0.216494845360825</v>
       </c>
       <c r="H19" t="n">
-        <v>0.56989247311828</v>
+        <v>0.268041237113402</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0118391864572181</v>
+        <v>0.006</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0017115448839528</v>
+        <v>0.0001627058548379</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.15802413571601</v>
+        <v>0.313526955018954</v>
       </c>
       <c r="G20" t="n">
-        <v>0.196078431372549</v>
+        <v>0.350515463917526</v>
       </c>
       <c r="H20" t="n">
-        <v>0.284313725490196</v>
+        <v>0.618556701030928</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.044</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001543690985844</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.000334478021978</v>
+        <v>0.0013039891659661</v>
       </c>
       <c r="N20" t="n">
-        <v>3.08738197168812</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2283,43 +2283,43 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.432563814636835</v>
+        <v>0.513702427188649</v>
       </c>
       <c r="G21" t="n">
-        <v>0.372549019607843</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5980392156862741</v>
+        <v>0.67741935483871</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.032</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0100343406593408</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0116663479345618</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.2141878421233</v>
+        <v>0.234650649259962</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0515463917525773</v>
       </c>
       <c r="H22" t="n">
-        <v>0.663265306122449</v>
+        <v>0.814432989690722</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.01</v>
+        <v>0.17</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0085739436619717</v>
+        <v>0.0018436903137789</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0212425507744884</v>
+        <v>-0.0024585780279501</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0064215523291514</v>
+        <v>0.0063214202277336</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.122310180627272</v>
+        <v>1.08452371398764</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.352798082259538</v>
+        <v>0.523611644434145</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0490196078431373</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.784313725490196</v>
+        <v>0.8969072164948449</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.147</v>
+        <v>1.61</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0007906566462805</v>
+        <v>-0.0019258181907528</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0032548157471825</v>
+        <v>-0.0609344603771666</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0030103021978022</v>
+        <v>0.0555631425033347</v>
       </c>
       <c r="N23" t="n">
-        <v>0.537861664136408</v>
+        <v>-0.119616036692722</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0187071242554309</v>
+        <v>0.20683801909521</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.480392156862745</v>
+        <v>0.8969072164948449</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13</v>
+        <v>0.32</v>
       </c>
       <c r="K24" t="n">
-        <v>0.632224436007656</v>
+        <v>0.0035120192307692</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0068786034992999</v>
       </c>
       <c r="M24" t="n">
-        <v>1.40721282222877</v>
+        <v>0.0113709651981939</v>
       </c>
       <c r="N24" t="n">
-        <v>4.86326489236658</v>
+        <v>1.09750600961539</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.475045797792795</v>
+        <v>0.254389621033888</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.911764705882353</v>
+        <v>0.9690721649484541</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.63</v>
+        <v>10.1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0015015416238437</v>
+        <v>0.194793591125978</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0405574179439842</v>
+        <v>-0.2995059251095</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0351057292024779</v>
+        <v>0.650473743650282</v>
       </c>
       <c r="N25" t="n">
-        <v>0.092119118027226</v>
+        <v>1.9286494170889</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.377272267609331</v>
+        <v>0.597659964262177</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.911764705882353</v>
+        <v>0.6</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3245</v>
+        <v>0.22</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0027438553317282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0073488369196028</v>
+        <v>-0.0094442962050544</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0103694133028928</v>
+        <v>0.0107605777143586</v>
       </c>
       <c r="N26" t="n">
-        <v>0.84556404675756</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.255831641347934</v>
+        <v>0.008572360565639999</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.970588235294118</v>
+        <v>0.9290780141843969</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.3</v>
+        <v>5.49</v>
       </c>
       <c r="K27" t="n">
-        <v>0.148995181095765</v>
+        <v>-0.129881947566595</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.369901234043431</v>
+        <v>-0.226260918525861</v>
       </c>
       <c r="M27" t="n">
-        <v>0.60050005128801</v>
+        <v>-0.0338575568480886</v>
       </c>
       <c r="N27" t="n">
-        <v>1.44655515626957</v>
+        <v>-2.36579139465565</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.3980270793204</v>
+        <v>0.9999949787203249</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.577464788732394</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.22</v>
+        <v>0.044</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-0.0033421043956044</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0142163305708693</v>
+        <v>-0.0046932557979747</v>
       </c>
       <c r="M28" t="n">
-        <v>0.007962490061006499</v>
+        <v>-0.0020726352724621</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-7.59569180819181</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.742148998483438</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0065359477124183</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.843137254901961</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00601083435614</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.925373134328358</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>5.455</v>
+        <v>448</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.151569736622347</v>
+        <v>-5.49248120300752</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.25997647522784</v>
+        <v>-24.4296253740055</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0451674631282469</v>
+        <v>7.55085675355708</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.7785469591631</v>
+        <v>-1.22600026852846</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9999965146256899</v>
+        <v>0.7479978023571781</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="H30" t="n">
-        <v>0.602739726027397</v>
+        <v>0.643356643356643</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0455</v>
+        <v>0.0174825174825175</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0037948051948052</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0052374985525549</v>
+        <v>-7.66518315992854e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0023925152100181</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-8.340231197374059</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.666938248951397</v>
+        <v>0.360680798026977</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0068493150684931</v>
+        <v>0.258741258741259</v>
       </c>
       <c r="H31" t="n">
-        <v>0.856164383561644</v>
+        <v>0.223776223776224</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>455.5</v>
+        <v>0.005</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.16448692152917</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-24.430762762368</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>11.7351226879776</v>
+        <v>0.0001423327769893</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.914267161696855</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,40 +3280,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.886815243620818</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.314685314685315</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.657342657342657</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on two censored values</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.678325900653462</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.360294117647059</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.647058823529412</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>0.0181742630514289</v>
+        <v>0.067</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0028767378492469</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.171776623053892</v>
+        <v>0.42779184713844</v>
       </c>
       <c r="G33" t="n">
-        <v>0.264705882352941</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.235294117647059</v>
+        <v>0.5540540540540539</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0045</v>
+        <v>7.01</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0012482911825017</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0100589173438172</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002498577508505</v>
+        <v>0.0075014536960194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.0178072921897537</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,46 +3458,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9429884936896999</v>
+        <v>0.935979466619027</v>
       </c>
       <c r="G34" t="n">
-        <v>0.323529411764706</v>
+        <v>0.0326797385620915</v>
       </c>
       <c r="H34" t="n">
-        <v>0.647058823529412</v>
+        <v>0.830065359477124</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.059</v>
+        <v>0.225</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.0027988505747126</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0041030538659664</v>
+        <v>-0.009220688629806</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0001769946013673</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.24393358876118</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3560,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.460650339705211</v>
+        <v>0.868143640384609</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.567375886524823</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.01</v>
+        <v>1.74</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.019351942700157</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0118698741902032</v>
+        <v>-0.0446782610263723</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0099723789083</v>
+        <v>0.0100213331777526</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.11218061495155</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9679968639270869</v>
+        <v>0.164196579177656</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0342465753424658</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.773972602739726</v>
+        <v>0.869281045751634</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.213</v>
+        <v>0.324</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0035192704748795</v>
+        <v>0.003278981264637</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0115026196716189</v>
+        <v>-0.0015857477512836</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0004507674495896</v>
+        <v>0.0091779968153961</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.65223965956787</v>
+        <v>1.01203125451759</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.906603898412488</v>
+        <v>0.642986284632917</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.828767123287671</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.745</v>
+        <v>11</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0243023483365949</v>
+        <v>-0.119042796222967</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0498695477236717</v>
+        <v>-0.505236465861008</v>
       </c>
       <c r="M37" t="n">
-        <v>0.009541591367716399</v>
+        <v>0.1668124958639</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.39268471842951</v>
+        <v>-1.08220723839061</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Piakatutu at u/s Sanson STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.285912003302425</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.876712328767123</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.3265</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0019972658920027</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0027488207652652</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.009167626841039399</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.611720028178475</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1805182</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5545597</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Piakatutu at u/s Sanson STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.745205568038048</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.917808219178082</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.183229051819184</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.557340267501708</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.124900410177024</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-1.6733246741478</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1805182</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5545597</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
+++ b/trend_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -127,15 +127,12 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -148,37 +145,25 @@
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -657,38 +642,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.85822403591342</v>
+        <v>0.800912886993382</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9090909090909089</v>
+        <v>0.85</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2625</v>
+        <v>0.2825</v>
       </c>
       <c r="K2">
-        <v>0.0271763392857143</v>
+        <v>0.0253509097035041</v>
       </c>
       <c r="L2">
-        <v>-0.0224844945212803</v>
+        <v>-0.0226374168018133</v>
       </c>
       <c r="M2">
-        <v>0.0734788245180933</v>
+        <v>0.06582388964356441</v>
       </c>
       <c r="N2">
-        <v>10.3528911564626</v>
+        <v>8.97377334637312</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
       <c r="Q2">
         <v>1805182</v>
       </c>
@@ -696,19 +681,19 @@
         <v>5545597</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.0460294840182069</v>
+        <v>0.039121099371542</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.695</v>
+        <v>5.31</v>
       </c>
       <c r="K3">
-        <v>-0.678686313686313</v>
+        <v>-0.931760204081633</v>
       </c>
       <c r="L3">
-        <v>-1.42885357221814</v>
+        <v>-1.57317247742972</v>
       </c>
       <c r="M3">
-        <v>-0.0436078305918157</v>
+        <v>-0.118128785697289</v>
       </c>
       <c r="N3">
-        <v>-10.1372115561809</v>
+        <v>-17.5472731465468</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1805182</v>
@@ -767,19 +752,19 @@
         <v>5545597</v>
       </c>
       <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
-      </c>
-      <c r="T3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,13 +784,13 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.252728180244266</v>
+        <v>0.299542035811817</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.7692307692307691</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -814,22 +799,22 @@
         <v>0.033</v>
       </c>
       <c r="K4">
-        <v>0.0017201726844584</v>
+        <v>0.0015575692963752</v>
       </c>
       <c r="L4">
-        <v>-0.0030919955046266</v>
+        <v>-0.004107865271971</v>
       </c>
       <c r="M4">
-        <v>0.0067211761901597</v>
+        <v>0.0070589155010205</v>
       </c>
       <c r="N4">
-        <v>5.21264449835878</v>
+        <v>4.71990695871293</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1805182</v>
@@ -838,19 +823,19 @@
         <v>5545597</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" t="s">
         <v>56</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,38 +855,38 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.586227005108278</v>
+        <v>0.886440226905964</v>
       </c>
       <c r="G5">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.871794871794872</v>
+        <v>0.885714285714286</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>450</v>
+        <v>670</v>
       </c>
       <c r="K5">
-        <v>-8.809369202226341</v>
+        <v>-87.4994505494505</v>
       </c>
       <c r="L5">
-        <v>-96.7595879474526</v>
+        <v>-255.612349407275</v>
       </c>
       <c r="M5">
-        <v>95.30660082173731</v>
+        <v>36.3352883380203</v>
       </c>
       <c r="N5">
-        <v>-1.95763760049474</v>
+        <v>-13.0596194849926</v>
       </c>
       <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
       <c r="Q5">
         <v>1805182</v>
       </c>
@@ -909,19 +894,19 @@
         <v>5545597</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" t="s">
         <v>57</v>
-      </c>
-      <c r="V5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,7 +926,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.733235042920126</v>
+        <v>0.762339880303031</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -953,26 +938,26 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0189877573669536</v>
+        <v>0.0151627518400788</v>
       </c>
       <c r="K6">
-        <v>-0.0016069209141533</v>
+        <v>-0.0011863931996259</v>
       </c>
       <c r="L6">
-        <v>-0.0052797883431004</v>
+        <v>-0.010745172681056</v>
       </c>
       <c r="M6">
-        <v>0.00249676742877</v>
+        <v>0.001426347096256</v>
       </c>
       <c r="N6">
-        <v>-8.462931577954929</v>
+        <v>-7.82439238034636</v>
       </c>
       <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
         <v>40</v>
       </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
       <c r="Q6">
         <v>1805182</v>
       </c>
@@ -980,19 +965,19 @@
         <v>5545597</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" t="s">
         <v>56</v>
-      </c>
-      <c r="U6" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,38 +997,38 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.767318485253823</v>
+        <v>0.8903366194061531</v>
       </c>
       <c r="G7">
-        <v>0.179487179487179</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="H7">
-        <v>0.487179487179487</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="K7">
-        <v>-0.000431227863046</v>
+        <v>-0.0007684081346423</v>
       </c>
       <c r="L7">
-        <v>-0.001836307134495</v>
+        <v>-0.0027753440132433</v>
       </c>
       <c r="M7">
-        <v>0.000752360503578</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-4.79142070051161</v>
+        <v>-12.8068022440393</v>
       </c>
       <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q7">
         <v>1805182</v>
       </c>
@@ -1051,19 +1036,19 @@
         <v>5545597</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" t="s">
         <v>56</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,38 +1068,38 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>0.705634167442577</v>
+        <v>0.758301117500078</v>
       </c>
       <c r="G8">
-        <v>0.282051282051282</v>
+        <v>0.342857142857143</v>
       </c>
       <c r="H8">
-        <v>0.692307692307692</v>
+        <v>0.6857142857142861</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.06900000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0333124533564863</v>
+        <v>-0.0347269376171242</v>
       </c>
       <c r="M8">
-        <v>0.0079964338043327</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
         <v>40</v>
       </c>
-      <c r="P8" t="s">
-        <v>41</v>
-      </c>
       <c r="Q8">
         <v>1805182</v>
       </c>
@@ -1122,19 +1107,19 @@
         <v>5545597</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" t="s">
         <v>56</v>
-      </c>
-      <c r="U8" t="s">
-        <v>57</v>
-      </c>
-      <c r="V8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,37 +1139,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.111204024085004</v>
+        <v>0.160093057511637</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.815789473684211</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.935</v>
+        <v>6.885</v>
       </c>
       <c r="K9">
-        <v>-0.0368939393939395</v>
+        <v>-0.0341036414565828</v>
       </c>
       <c r="L9">
-        <v>-0.0875529311301842</v>
+        <v>-0.09904860167433401</v>
       </c>
       <c r="M9">
-        <v>0.0124806111081194</v>
+        <v>0.0257747657271551</v>
       </c>
       <c r="N9">
-        <v>-0.53199624216207</v>
+        <v>-0.495332483029525</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q9">
         <v>1805182</v>
@@ -1193,16 +1178,16 @@
         <v>5545597</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,37 +1207,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.706943980384834</v>
+        <v>0.516996654127053</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.923076923076923</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.31</v>
+        <v>0.215</v>
       </c>
       <c r="K10">
-        <v>-0.0177305825242719</v>
+        <v>-0.000648181011535</v>
       </c>
       <c r="L10">
-        <v>-0.09845209505612181</v>
+        <v>-0.074790454045539</v>
       </c>
       <c r="M10">
-        <v>0.0383262810617116</v>
+        <v>0.0359422723005555</v>
       </c>
       <c r="N10">
-        <v>-5.71954274976512</v>
+        <v>-0.30147954024886</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1805182</v>
@@ -1261,19 +1246,19 @@
         <v>5545597</v>
       </c>
       <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" t="s">
         <v>55</v>
-      </c>
-      <c r="T10" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,38 +1278,38 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.212253260591174</v>
+        <v>0.6803898032247671</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.897435897435897</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="K11">
-        <v>0.0685915492957747</v>
+        <v>-0.0419292091836735</v>
       </c>
       <c r="L11">
-        <v>-0.0779051711194538</v>
+        <v>-0.186853894555831</v>
       </c>
       <c r="M11">
-        <v>0.214106132319102</v>
+        <v>0.121820342672882</v>
       </c>
       <c r="N11">
-        <v>4.39689418562658</v>
+        <v>-2.74047118847539</v>
       </c>
       <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
         <v>40</v>
       </c>
-      <c r="P11" t="s">
-        <v>43</v>
-      </c>
       <c r="Q11">
         <v>1805182</v>
       </c>
@@ -1332,19 +1317,19 @@
         <v>5545597</v>
       </c>
       <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" t="s">
         <v>55</v>
-      </c>
-      <c r="T11" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,37 +1349,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0070276918622025</v>
+        <v>0.252215350495778</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.974358974358974</v>
+        <v>0.971428571428571</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.283</v>
+        <v>0.33</v>
       </c>
       <c r="K12">
-        <v>0.039779702970297</v>
+        <v>0.0103107356715141</v>
       </c>
       <c r="L12">
-        <v>0.014595264178749</v>
+        <v>-0.0226611306337122</v>
       </c>
       <c r="M12">
-        <v>0.08484005424168251</v>
+        <v>0.0494215303370149</v>
       </c>
       <c r="N12">
-        <v>14.0564321449813</v>
+        <v>3.12446535500427</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1805182</v>
@@ -1403,19 +1388,19 @@
         <v>5545597</v>
       </c>
       <c r="S12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" t="s">
         <v>55</v>
-      </c>
-      <c r="T12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V12" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,7 +1420,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.241458522228406</v>
+        <v>0.64402454727217</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1450,22 +1435,22 @@
         <v>10.7</v>
       </c>
       <c r="K13">
-        <v>0.64827922077922</v>
+        <v>-0.382848689771767</v>
       </c>
       <c r="L13">
-        <v>-0.924467319848581</v>
+        <v>-2.29098118396114</v>
       </c>
       <c r="M13">
-        <v>1.9910712192743</v>
+        <v>1.30533719701512</v>
       </c>
       <c r="N13">
-        <v>6.05868430634785</v>
+        <v>-3.5780251380539</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1805182</v>
@@ -1474,19 +1459,19 @@
         <v>5545597</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V13" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" t="s">
         <v>58</v>
-      </c>
-      <c r="W13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1491,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.622749249772051</v>
+        <v>0.949273966872922</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.666666666666667</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.225</v>
+        <v>0.2225</v>
       </c>
       <c r="K14">
-        <v>0.0023984326827352</v>
+        <v>0.0140769527235355</v>
       </c>
       <c r="L14">
-        <v>-0.0110393155724629</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.0159468437393978</v>
+        <v>0.0270759770488531</v>
       </c>
       <c r="N14">
-        <v>1.06597008121568</v>
+        <v>6.32672032518448</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1805182</v>
@@ -1545,19 +1530,19 @@
         <v>5545597</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1562,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.906649634329786</v>
+        <v>0.552567258066492</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.953488372093023</v>
+        <v>0.963414634146341</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.455</v>
+        <v>5.485</v>
       </c>
       <c r="K15">
-        <v>0.185983026874117</v>
+        <v>0.0232643312101911</v>
       </c>
       <c r="L15">
-        <v>-0.0472717312530349</v>
+        <v>-0.220011474676356</v>
       </c>
       <c r="M15">
-        <v>0.404308123970308</v>
+        <v>0.252597097783826</v>
       </c>
       <c r="N15">
-        <v>3.40940470896639</v>
+        <v>0.42414459818033</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15">
         <v>1805182</v>
@@ -1616,19 +1601,19 @@
         <v>5545597</v>
       </c>
       <c r="S15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" t="s">
         <v>55</v>
-      </c>
-      <c r="T15" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" t="s">
-        <v>57</v>
-      </c>
-      <c r="V15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,38 +1633,38 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.955717099508036</v>
+        <v>0.8184898075279921</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.639175257731959</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="K16">
-        <v>-0.0016723901098901</v>
+        <v>-0.0007731727596501</v>
       </c>
       <c r="L16">
-        <v>-0.0029958988380041</v>
+        <v>-0.0023669354185728</v>
       </c>
       <c r="M16">
-        <v>-4.31568575120288E-05</v>
+        <v>0.0005849302311875</v>
       </c>
       <c r="N16">
-        <v>-4.51997326997327</v>
+        <v>-2.14770211013926</v>
       </c>
       <c r="O16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" t="s">
         <v>40</v>
       </c>
-      <c r="P16" t="s">
-        <v>48</v>
-      </c>
       <c r="Q16">
         <v>1805182</v>
       </c>
@@ -1687,19 +1672,19 @@
         <v>5545597</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" t="s">
         <v>56</v>
-      </c>
-      <c r="U16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V16" t="s">
-        <v>58</v>
-      </c>
-      <c r="W16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,37 +1704,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.0941921466100676</v>
+        <v>0.307858708810261</v>
       </c>
       <c r="G17">
-        <v>0.0103092783505155</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="H17">
-        <v>0.814432989690722</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K17">
-        <v>15.1111816100968</v>
+        <v>7.27753759398496</v>
       </c>
       <c r="L17">
-        <v>-4.75645066917571</v>
+        <v>-19.8523545448971</v>
       </c>
       <c r="M17">
-        <v>44.302218255203</v>
+        <v>37.7430524601716</v>
       </c>
       <c r="N17">
-        <v>4.1975504472491</v>
+        <v>1.81938439849624</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1805182</v>
@@ -1758,19 +1743,19 @@
         <v>5545597</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" t="s">
         <v>57</v>
-      </c>
-      <c r="V17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,22 +1772,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>0.034302298026423</v>
+        <v>0.25328613012929</v>
       </c>
       <c r="G18">
-        <v>0.420454545454545</v>
+        <v>0.402439024390244</v>
       </c>
       <c r="H18">
-        <v>0.602272727272727</v>
+        <v>0.621951219512195</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0.014191843577095</v>
+        <v>0.0147613812064726</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1811,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.001656879008086</v>
+        <v>0.0002164880234126</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q18">
         <v>1805182</v>
@@ -1829,19 +1814,19 @@
         <v>5545597</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" t="s">
         <v>56</v>
-      </c>
-      <c r="U18" t="s">
-        <v>57</v>
-      </c>
-      <c r="V18" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0.6200443558188909</v>
+        <v>0.958334282396839</v>
       </c>
       <c r="G19">
-        <v>0.216494845360825</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="H19">
-        <v>0.268041237113402</v>
+        <v>0.288888888888889</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1876,22 +1861,22 @@
         <v>0.006</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0002677841084654</v>
       </c>
       <c r="L19">
-        <v>-0.0002496582365003</v>
+        <v>-0.0007467866690107</v>
       </c>
       <c r="M19">
-        <v>0.0001627058548379</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-4.46306847442392</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1805182</v>
@@ -1900,19 +1885,19 @@
         <v>5545597</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" t="s">
         <v>56</v>
-      </c>
-      <c r="U19" t="s">
-        <v>57</v>
-      </c>
-      <c r="V19" t="s">
-        <v>58</v>
-      </c>
-      <c r="W19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1929,40 +1914,40 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>0.313526955018954</v>
+        <v>0.639804625820539</v>
       </c>
       <c r="G20">
-        <v>0.350515463917526</v>
+        <v>0.355555555555556</v>
       </c>
       <c r="H20">
-        <v>0.618556701030928</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.044</v>
+        <v>0.051</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0015671779219857</v>
       </c>
       <c r="M20">
-        <v>0.0013039891659661</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1805182</v>
@@ -1971,19 +1956,19 @@
         <v>5545597</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" t="s">
         <v>56</v>
-      </c>
-      <c r="U20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V20" t="s">
-        <v>58</v>
-      </c>
-      <c r="W20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,40 +1985,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>0.513702427188649</v>
+        <v>0.020997761593975</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.67741935483871</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>7.01</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0198154411385996</v>
       </c>
       <c r="L21">
-        <v>-0.0100343406593408</v>
+        <v>-0.0350750575381996</v>
       </c>
       <c r="M21">
-        <v>0.0116663479345618</v>
+        <v>-0.0059975369458127</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-0.282673910679025</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q21">
         <v>1805182</v>
@@ -2042,16 +2027,16 @@
         <v>5545597</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,38 +2056,38 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.234650649259962</v>
+        <v>0.8187838816370649</v>
       </c>
       <c r="G22">
-        <v>0.0515463917525773</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H22">
-        <v>0.814432989690722</v>
+        <v>0.8</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.17</v>
+        <v>0.162</v>
       </c>
       <c r="K22">
-        <v>0.0018436903137789</v>
+        <v>-0.0036270411692623</v>
       </c>
       <c r="L22">
-        <v>-0.0024585780279501</v>
+        <v>-0.0192077871725646</v>
       </c>
       <c r="M22">
-        <v>0.0063214202277336</v>
+        <v>0.0018385179566035</v>
       </c>
       <c r="N22">
-        <v>1.08452371398764</v>
+        <v>-2.23891430201382</v>
       </c>
       <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" t="s">
         <v>40</v>
       </c>
-      <c r="P22" t="s">
-        <v>43</v>
-      </c>
       <c r="Q22">
         <v>1805182</v>
       </c>
@@ -2110,19 +2095,19 @@
         <v>5545597</v>
       </c>
       <c r="S22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" t="s">
         <v>55</v>
-      </c>
-      <c r="T22" t="s">
-        <v>56</v>
-      </c>
-      <c r="U22" t="s">
-        <v>57</v>
-      </c>
-      <c r="V22" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,38 +2127,38 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.523611644434145</v>
+        <v>0.887424790425391</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.8969072164948449</v>
+        <v>0.9</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="K23">
-        <v>-0.0019258181907528</v>
+        <v>-0.04570385818561</v>
       </c>
       <c r="L23">
-        <v>-0.0609344603771666</v>
+        <v>-0.116604362035578</v>
       </c>
       <c r="M23">
-        <v>0.0555631425033347</v>
+        <v>0.0158857108653728</v>
       </c>
       <c r="N23">
-        <v>-0.119616036692722</v>
+        <v>-2.80391768009877</v>
       </c>
       <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" t="s">
         <v>40</v>
       </c>
-      <c r="P23" t="s">
-        <v>44</v>
-      </c>
       <c r="Q23">
         <v>1805182</v>
       </c>
@@ -2181,19 +2166,19 @@
         <v>5545597</v>
       </c>
       <c r="S23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" t="s">
+        <v>52</v>
+      </c>
+      <c r="V23" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" t="s">
         <v>55</v>
-      </c>
-      <c r="T23" t="s">
-        <v>56</v>
-      </c>
-      <c r="U23" t="s">
-        <v>57</v>
-      </c>
-      <c r="V23" t="s">
-        <v>58</v>
-      </c>
-      <c r="W23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,37 +2198,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.20683801909521</v>
+        <v>0.288284322141379</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.8969072164948449</v>
+        <v>0.911111111111111</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.32</v>
+        <v>0.2945</v>
       </c>
       <c r="K24">
-        <v>0.0035120192307692</v>
+        <v>0.0030807057664033</v>
       </c>
       <c r="L24">
-        <v>-0.0068786034992999</v>
+        <v>-0.0069298494041009</v>
       </c>
       <c r="M24">
-        <v>0.0113709651981939</v>
+        <v>0.013521915513609</v>
       </c>
       <c r="N24">
-        <v>1.09750600961539</v>
+        <v>1.04608005650369</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1805182</v>
@@ -2252,19 +2237,19 @@
         <v>5545597</v>
       </c>
       <c r="S24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" t="s">
         <v>55</v>
-      </c>
-      <c r="T24" t="s">
-        <v>56</v>
-      </c>
-      <c r="U24" t="s">
-        <v>57</v>
-      </c>
-      <c r="V24" t="s">
-        <v>58</v>
-      </c>
-      <c r="W24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,38 +2269,38 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.254389621033888</v>
+        <v>0.693350747476561</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.9690721649484541</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="K25">
-        <v>0.194793591125978</v>
+        <v>-0.159663136547995</v>
       </c>
       <c r="L25">
-        <v>-0.2995059251095</v>
+        <v>-0.705586417618924</v>
       </c>
       <c r="M25">
-        <v>0.650473743650282</v>
+        <v>0.3735865244572</v>
       </c>
       <c r="N25">
-        <v>1.9286494170889</v>
+        <v>-1.55012753930092</v>
       </c>
       <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
         <v>40</v>
       </c>
-      <c r="P25" t="s">
-        <v>43</v>
-      </c>
       <c r="Q25">
         <v>1805182</v>
       </c>
@@ -2323,19 +2308,19 @@
         <v>5545597</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" t="s">
         <v>58</v>
-      </c>
-      <c r="W25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,41 +2337,41 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>0.597659964262177</v>
+        <v>0.733682941853972</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.6</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.22</v>
+        <v>0.2225</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.0023763737687153</v>
       </c>
       <c r="L26">
-        <v>-0.0094442962050544</v>
+        <v>-0.0059489167615965</v>
       </c>
       <c r="M26">
-        <v>0.0107605777143586</v>
+        <v>0.0128278851099253</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1.06803315447882</v>
       </c>
       <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" t="s">
         <v>40</v>
       </c>
-      <c r="P26" t="s">
-        <v>44</v>
-      </c>
       <c r="Q26">
         <v>1805182</v>
       </c>
@@ -2394,19 +2379,19 @@
         <v>5545597</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,37 +2411,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.008572360565639999</v>
+        <v>0.04249795521706</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9290780141843969</v>
+        <v>0.932835820895522</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>5.49</v>
+        <v>5.165</v>
       </c>
       <c r="K27">
-        <v>-0.129881947566595</v>
+        <v>-0.109908054711246</v>
       </c>
       <c r="L27">
-        <v>-0.226260918525861</v>
+        <v>-0.196734348534268</v>
       </c>
       <c r="M27">
-        <v>-0.0338575568480886</v>
+        <v>-0.0064045208040017</v>
       </c>
       <c r="N27">
-        <v>-2.36579139465565</v>
+        <v>-2.12793910379954</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q27">
         <v>1805182</v>
@@ -2465,19 +2450,19 @@
         <v>5545597</v>
       </c>
       <c r="S27" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" t="s">
+        <v>53</v>
+      </c>
+      <c r="W27" t="s">
         <v>55</v>
-      </c>
-      <c r="T27" t="s">
-        <v>56</v>
-      </c>
-      <c r="U27" t="s">
-        <v>57</v>
-      </c>
-      <c r="V27" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,37 +2482,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.9999949787203249</v>
+        <v>0.999360046126307</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.588235294117647</v>
+        <v>0.568493150684932</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="K28">
-        <v>-0.0033421043956044</v>
+        <v>-0.0022492894362861</v>
       </c>
       <c r="L28">
-        <v>-0.0046932557979747</v>
+        <v>-0.0034360359243575</v>
       </c>
       <c r="M28">
-        <v>-0.0020726352724621</v>
+        <v>-0.0011343167701863</v>
       </c>
       <c r="N28">
-        <v>-7.59569180819181</v>
+        <v>-5.23090566578167</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1805182</v>
@@ -2536,19 +2521,19 @@
         <v>5545597</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" t="s">
+        <v>53</v>
+      </c>
+      <c r="W28" t="s">
         <v>56</v>
-      </c>
-      <c r="U28" t="s">
-        <v>57</v>
-      </c>
-      <c r="V28" t="s">
-        <v>58</v>
-      </c>
-      <c r="W28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,37 +2553,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.742148998483438</v>
+        <v>0.657041231418576</v>
       </c>
       <c r="G29">
-        <v>0.0065359477124183</v>
+        <v>0.0068493150684931</v>
       </c>
       <c r="H29">
-        <v>0.843137254901961</v>
+        <v>0.856164383561644</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K29">
-        <v>-5.49248120300752</v>
+        <v>-3.15596198156682</v>
       </c>
       <c r="L29">
-        <v>-24.4296253740055</v>
+        <v>-21.3177818165727</v>
       </c>
       <c r="M29">
-        <v>7.55085675355708</v>
+        <v>10.3401828226985</v>
       </c>
       <c r="N29">
-        <v>-1.22600026852846</v>
+        <v>-0.718897945687203</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1805182</v>
@@ -2607,19 +2592,19 @@
         <v>5545597</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" t="s">
+        <v>53</v>
+      </c>
+      <c r="W29" t="s">
         <v>57</v>
-      </c>
-      <c r="V29" t="s">
-        <v>58</v>
-      </c>
-      <c r="W29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,16 +2621,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.7479978023571781</v>
+        <v>0.9485733362590359</v>
       </c>
       <c r="G30">
-        <v>0.363636363636364</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="H30">
-        <v>0.643356643356643</v>
+        <v>0.642335766423358</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2657,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-7.66518315992854E-05</v>
+        <v>-0.0007524489832483</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2666,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1805182</v>
@@ -2678,19 +2663,19 @@
         <v>5545597</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30" t="s">
+        <v>53</v>
+      </c>
+      <c r="W30" t="s">
         <v>56</v>
-      </c>
-      <c r="U30" t="s">
-        <v>57</v>
-      </c>
-      <c r="V30" t="s">
-        <v>58</v>
-      </c>
-      <c r="W30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,37 +2692,37 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.360680798026977</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>0.258741258741259</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="H31">
-        <v>0.223776223776224</v>
+        <v>0.212328767123288</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-9.52372997161432E-05</v>
       </c>
       <c r="M31">
-        <v>0.0001423327769893</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
         <v>44</v>
@@ -2749,19 +2734,19 @@
         <v>5545597</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" t="s">
         <v>56</v>
-      </c>
-      <c r="U31" t="s">
-        <v>57</v>
-      </c>
-      <c r="V31" t="s">
-        <v>58</v>
-      </c>
-      <c r="W31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,28 +2763,28 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32">
-        <v>0.886815243620818</v>
+        <v>0.842895673517061</v>
       </c>
       <c r="G32">
-        <v>0.314685314685315</v>
+        <v>0.328767123287671</v>
       </c>
       <c r="H32">
-        <v>0.657342657342657</v>
+        <v>0.643835616438356</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.067</v>
+        <v>0.059</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>-0.0028767378492469</v>
+        <v>-0.0015994263805438</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2808,11 +2793,11 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
         <v>40</v>
       </c>
-      <c r="P32" t="s">
-        <v>41</v>
-      </c>
       <c r="Q32">
         <v>1805182</v>
       </c>
@@ -2820,19 +2805,19 @@
         <v>5545597</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32" t="s">
+        <v>53</v>
+      </c>
+      <c r="W32" t="s">
         <v>56</v>
-      </c>
-      <c r="U32" t="s">
-        <v>57</v>
-      </c>
-      <c r="V32" t="s">
-        <v>58</v>
-      </c>
-      <c r="W32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,13 +2837,13 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.42779184713844</v>
+        <v>0.025075139271561</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.5540540540540539</v>
+        <v>0.570422535211268</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2867,22 +2852,22 @@
         <v>7.01</v>
       </c>
       <c r="K33">
-        <v>-0.0012482911825017</v>
+        <v>-0.0124234693877551</v>
       </c>
       <c r="L33">
-        <v>-0.0100589173438172</v>
+        <v>-0.0231658590076304</v>
       </c>
       <c r="M33">
-        <v>0.0075014536960194</v>
+        <v>-0.0022933782477382</v>
       </c>
       <c r="N33">
-        <v>-0.0178072921897537</v>
+        <v>-0.177224955602783</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q33">
         <v>1805182</v>
@@ -2891,16 +2876,16 @@
         <v>5545597</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,37 +2905,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.935979466619027</v>
+        <v>0.924247239749371</v>
       </c>
       <c r="G34">
-        <v>0.0326797385620915</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="H34">
-        <v>0.830065359477124</v>
+        <v>0.828767123287671</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.225</v>
+        <v>0.2132</v>
       </c>
       <c r="K34">
-        <v>-0.0027988505747126</v>
+        <v>-0.0028848729395604</v>
       </c>
       <c r="L34">
-        <v>-0.009220688629806</v>
+        <v>-0.010759301605316</v>
       </c>
       <c r="M34">
-        <v>0.0001769946013673</v>
+        <v>0.0002117887948173</v>
       </c>
       <c r="N34">
-        <v>-1.24393358876118</v>
+        <v>-1.35312989660433</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1805182</v>
@@ -2959,19 +2944,19 @@
         <v>5545597</v>
       </c>
       <c r="S34" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U34" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" t="s">
+        <v>53</v>
+      </c>
+      <c r="W34" t="s">
         <v>55</v>
-      </c>
-      <c r="T34" t="s">
-        <v>56</v>
-      </c>
-      <c r="U34" t="s">
-        <v>57</v>
-      </c>
-      <c r="V34" t="s">
-        <v>58</v>
-      </c>
-      <c r="W34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,38 +2976,38 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.868143640384609</v>
+        <v>0.768530822128926</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.823529411764706</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.74</v>
+        <v>1.635</v>
       </c>
       <c r="K35">
-        <v>-0.019351942700157</v>
+        <v>-0.0104795332409365</v>
       </c>
       <c r="L35">
-        <v>-0.0446782610263723</v>
+        <v>-0.0429366445736146</v>
       </c>
       <c r="M35">
-        <v>0.0100213331777526</v>
+        <v>0.014909220201199</v>
       </c>
       <c r="N35">
-        <v>-1.11218061495155</v>
+        <v>-0.64095004531722</v>
       </c>
       <c r="O35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s">
         <v>40</v>
       </c>
-      <c r="P35" t="s">
-        <v>41</v>
-      </c>
       <c r="Q35">
         <v>1805182</v>
       </c>
@@ -3030,19 +3015,19 @@
         <v>5545597</v>
       </c>
       <c r="S35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" t="s">
+        <v>52</v>
+      </c>
+      <c r="V35" t="s">
+        <v>53</v>
+      </c>
+      <c r="W35" t="s">
         <v>55</v>
-      </c>
-      <c r="T35" t="s">
-        <v>56</v>
-      </c>
-      <c r="U35" t="s">
-        <v>57</v>
-      </c>
-      <c r="V35" t="s">
-        <v>58</v>
-      </c>
-      <c r="W35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,37 +3047,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.164196579177656</v>
+        <v>0.07893529325018379</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.869281045751634</v>
+        <v>0.8698630136986299</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="K36">
-        <v>0.003278981264637</v>
+        <v>0.0042218105138929</v>
       </c>
       <c r="L36">
-        <v>-0.0015857477512836</v>
+        <v>-0.0010263994808266</v>
       </c>
       <c r="M36">
-        <v>0.0091779968153961</v>
+        <v>0.0100292270522847</v>
       </c>
       <c r="N36">
-        <v>1.01203125451759</v>
+        <v>1.31112127760652</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1805182</v>
@@ -3101,19 +3086,19 @@
         <v>5545597</v>
       </c>
       <c r="S36" t="s">
+        <v>50</v>
+      </c>
+      <c r="T36" t="s">
+        <v>51</v>
+      </c>
+      <c r="U36" t="s">
+        <v>52</v>
+      </c>
+      <c r="V36" t="s">
+        <v>53</v>
+      </c>
+      <c r="W36" t="s">
         <v>55</v>
-      </c>
-      <c r="T36" t="s">
-        <v>56</v>
-      </c>
-      <c r="U36" t="s">
-        <v>57</v>
-      </c>
-      <c r="V36" t="s">
-        <v>58</v>
-      </c>
-      <c r="W36" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,34 +3118,34 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.642986284632917</v>
+        <v>0.5</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.92156862745098</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K37">
-        <v>-0.119042796222967</v>
+        <v>-0.0175039936102236</v>
       </c>
       <c r="L37">
-        <v>-0.505236465861008</v>
+        <v>-0.374586978335875</v>
       </c>
       <c r="M37">
-        <v>0.1668124958639</v>
+        <v>0.272059185132797</v>
       </c>
       <c r="N37">
-        <v>-1.08220723839061</v>
+        <v>-0.163588725329193</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
         <v>44</v>
@@ -3172,19 +3157,19 @@
         <v>5545597</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V37" t="s">
+        <v>53</v>
+      </c>
+      <c r="W37" t="s">
         <v>58</v>
-      </c>
-      <c r="W37" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
